--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H2">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I2">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J2">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>0.1860128461831111</v>
+        <v>1.711411355550445</v>
       </c>
       <c r="R2">
-        <v>1.674115615648</v>
+        <v>15.402702199954</v>
       </c>
       <c r="S2">
-        <v>0.02237478773955309</v>
+        <v>0.1201781672594783</v>
       </c>
       <c r="T2">
-        <v>0.02237478773955309</v>
+        <v>0.1201781672594783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H3">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I3">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J3">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>0.4789670271431111</v>
+        <v>1.570410305432889</v>
       </c>
       <c r="R3">
-        <v>4.310703244288001</v>
+        <v>14.133692748896</v>
       </c>
       <c r="S3">
-        <v>0.05761314762111788</v>
+        <v>0.1102768377340939</v>
       </c>
       <c r="T3">
-        <v>0.0576131476211179</v>
+        <v>0.1102768377340939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H4">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I4">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J4">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>0.7062707523271109</v>
+        <v>2.315681049060889</v>
       </c>
       <c r="R4">
-        <v>6.356436770943999</v>
+        <v>20.841129441548</v>
       </c>
       <c r="S4">
-        <v>0.08495466035941109</v>
+        <v>0.1626109956154493</v>
       </c>
       <c r="T4">
-        <v>0.0849546603594111</v>
+        <v>0.1626109956154494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.187895</v>
       </c>
       <c r="I5">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J5">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>0.7388782253183334</v>
+        <v>2.073370045256667</v>
       </c>
       <c r="R5">
-        <v>6.649904027864999</v>
+        <v>18.66033040731</v>
       </c>
       <c r="S5">
-        <v>0.08887689101107052</v>
+        <v>0.145595511728684</v>
       </c>
       <c r="T5">
-        <v>0.08887689101107051</v>
+        <v>0.145595511728684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.187895</v>
       </c>
       <c r="I6">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J6">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>1.902547669493334</v>
@@ -818,10 +818,10 @@
         <v>17.12292902544</v>
       </c>
       <c r="S6">
-        <v>0.2288503248178339</v>
+        <v>0.1336000788483497</v>
       </c>
       <c r="T6">
-        <v>0.2288503248178339</v>
+        <v>0.1336000788483497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.187895</v>
       </c>
       <c r="I7">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J7">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>2.805441079913333</v>
@@ -880,10 +880,10 @@
         <v>25.24896971922</v>
       </c>
       <c r="S7">
-        <v>0.3374559874057919</v>
+        <v>0.1970027639731284</v>
       </c>
       <c r="T7">
-        <v>0.3374559874057919</v>
+        <v>0.1970027639731284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.149746</v>
       </c>
       <c r="I8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>0.2028518585224444</v>
+        <v>0.5692236591542222</v>
       </c>
       <c r="R8">
-        <v>1.825666726702</v>
+        <v>5.123012932388</v>
       </c>
       <c r="S8">
-        <v>0.02440028938939832</v>
+        <v>0.03997183721846119</v>
       </c>
       <c r="T8">
-        <v>0.02440028938939831</v>
+        <v>0.03997183721846119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.149746</v>
       </c>
       <c r="I9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
         <v>0.5223260308124444</v>
@@ -1004,10 +1004,10 @@
         <v>4.700934277312</v>
       </c>
       <c r="S9">
-        <v>0.06282863958098406</v>
+        <v>0.03667860733269928</v>
       </c>
       <c r="T9">
-        <v>0.06282863958098406</v>
+        <v>0.03667860733269928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.149746</v>
       </c>
       <c r="I10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>0.7702066694284443</v>
@@ -1066,10 +1066,10 @@
         <v>6.931860024855999</v>
       </c>
       <c r="S10">
-        <v>0.09264527207483939</v>
+        <v>0.05408520028965588</v>
       </c>
       <c r="T10">
-        <v>0.09264527207483939</v>
+        <v>0.05408520028965588</v>
       </c>
     </row>
   </sheetData>
